--- a/scripts/Al.lergens.xlsx
+++ b/scripts/Al.lergens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calblayrest-my.sharepoint.com/personal/oriol_calblay_com/Documents/Escritorio/dev/cal-blay-webapp/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{42AD79C0-54A9-4026-A312-B0B61FCA5ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979C20CB-C299-4568-83DB-E1450D32C5D9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{42AD79C0-54A9-4026-A312-B0B61FCA5ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E57FAE2-58F8-43E2-BBB2-8BAD8B544FD2}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="497" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COCKTAIL (EMPRESA i CASAMENTS)" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="572">
   <si>
     <t>Núm. Codi</t>
   </si>
@@ -3240,11 +3240,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U273"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="33.6" customHeight="1"/>
@@ -9558,9 +9558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4377A5-3A19-F84E-BCBB-ACD977000A96}">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9635,8 +9635,12 @@
       <c r="S1" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="T1" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1">
       <c r="A2" s="49"/>
@@ -15067,17 +15071,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc21e8b-9a2a-4f27-9a15-13ba766ee81c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="834d9a2c-b3a2-40cf-9f5a-3e1af91402ae" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006827E1F2A6A6134F92A9F15D20A2C7EB" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e3d0159570353862199ef17b36aeab72">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bc21e8b-9a2a-4f27-9a15-13ba766ee81c" xmlns:ns3="834d9a2c-b3a2-40cf-9f5a-3e1af91402ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c540bf311518cce847c631e5b2bb5464" ns2:_="" ns3:_="">
     <xsd:import namespace="7bc21e8b-9a2a-4f27-9a15-13ba766ee81c"/>
@@ -15284,6 +15277,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc21e8b-9a2a-4f27-9a15-13ba766ee81c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="834d9a2c-b3a2-40cf-9f5a-3e1af91402ae" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D688778-41A4-4CC0-AABC-1E24D8EE2197}">
   <ds:schemaRefs>
@@ -15293,17 +15297,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8383C5F-29B8-4C04-878C-CB7B8E1A91F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7bc21e8b-9a2a-4f27-9a15-13ba766ee81c"/>
-    <ds:schemaRef ds:uri="834d9a2c-b3a2-40cf-9f5a-3e1af91402ae"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FE87E3-B86F-4D03-99FC-6E318A04D7B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15320,4 +15313,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8383C5F-29B8-4C04-878C-CB7B8E1A91F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7bc21e8b-9a2a-4f27-9a15-13ba766ee81c"/>
+    <ds:schemaRef ds:uri="834d9a2c-b3a2-40cf-9f5a-3e1af91402ae"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>